--- a/examples/Cpp/global-var/全局变量表.xlsx
+++ b/examples/Cpp/global-var/全局变量表.xlsx
@@ -1,273 +1,537 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="18697" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="meta" sheetId="2" r:id="rId2"/>
+    <sheet name="@meta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
   <si>
     <t>变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量描述</t>
+  </si>
+  <si>
+    <t>变量类型</t>
+  </si>
+  <si>
+    <t>变量值</t>
+  </si>
+  <si>
+    <t>GoldExchangeTimeFactor1</t>
   </si>
   <si>
     <t>金币兑换时间参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>GoldExchangeTimeFactor2</t>
   </si>
   <si>
     <t>金币兑换时间参数2</t>
   </si>
   <si>
+    <t>GoldExchangeTimeFactor3</t>
+  </si>
+  <si>
     <t>金币兑换时间参数3</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>GoldExchangeResource1Price</t>
+  </si>
+  <si>
+    <t>金币兑换资源1价格</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>GoldExchangeResource2Price</t>
+  </si>
+  <si>
+    <t>金币兑换资源2价格</t>
+  </si>
+  <si>
+    <t>GoldExchangeResource3Price</t>
+  </si>
+  <si>
+    <t>金币兑换资源3价格</t>
+  </si>
+  <si>
+    <t>GoldExchangeResource4Price</t>
+  </si>
+  <si>
+    <t>金币兑换资源4价格</t>
+  </si>
+  <si>
+    <t>FreeCompleteSeconds</t>
+  </si>
+  <si>
+    <t>免费立即完成时间</t>
+  </si>
+  <si>
+    <t>CancelBuildReturnPercent</t>
+  </si>
+  <si>
+    <t>取消建造后返还资源比例</t>
+  </si>
+  <si>
+    <t>SpawnLevelLimit</t>
+  </si>
+  <si>
+    <t>最大刷新个数显示</t>
+  </si>
+  <si>
+    <t>array&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5</t>
+  </si>
+  <si>
+    <t>FirstRechargeReward</t>
+  </si>
+  <si>
+    <t>首充奖励</t>
+  </si>
+  <si>
+    <t>map&lt;string,int&gt;</t>
+  </si>
+  <si>
+    <t>Food=100|Power=200|Diamond=10</t>
+  </si>
+  <si>
+    <t>程序导出参数</t>
   </si>
   <si>
     <t>class-name</t>
   </si>
   <si>
-    <t>程序导出参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>GlobalPropertyDefine</t>
+  </si>
+  <si>
+    <t>生成的类名称</t>
+  </si>
+  <si>
+    <t>class-comment</t>
+  </si>
+  <si>
+    <t>全局数值配置</t>
   </si>
   <si>
     <t>key-value-column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>键值所在列</t>
   </si>
   <si>
     <t>comment-column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释所在列</t>
   </si>
   <si>
     <t>value-type-column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class-comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局数值配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeCompleteSeconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelBuildReturnPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成的类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldExchangeTimeFactor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldExchangeTimeFactor2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldExchangeTimeFactor3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldExchangeResource1Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldExchangeResource2Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldExchangeResource3Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldExchangeResource4Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消建造后返还资源比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币兑换资源1价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币兑换资源2价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币兑换资源3价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币兑换资源4价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费立即完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GlobalPropertyDefine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>键值所在列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>值类型所在列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释所在列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpawnLevelLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大刷新个数显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3|4|5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstRechargeReward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map&lt;string,int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food=100|Power=200|Diamond=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -275,9 +539,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -288,8 +794,56 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -297,7 +851,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -307,9 +861,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -567,312 +1118,308 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.3716814159292" customWidth="1"/>
+    <col min="2" max="2" width="23.5044247787611" customWidth="1"/>
+    <col min="3" max="3" width="15.1238938053097" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1238938053097" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A$1:A$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3716814159292" customWidth="1"/>
+    <col min="2" max="2" width="25.6283185840708" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/Cpp/global-var/全局变量表.xlsx
+++ b/examples/Cpp/global-var/全局变量表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18697" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="18697" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>array&lt;int&gt;</t>
   </si>
   <si>
-    <t>1|2|3|4|5</t>
+    <t>1,2,3,4,5</t>
   </si>
   <si>
     <t>FirstRechargeReward</t>
@@ -125,13 +125,13 @@
     <t>map&lt;string,int&gt;</t>
   </si>
   <si>
-    <t>Food=100|Power=200|Diamond=10</t>
+    <t>Food=100;Power=200;Diamond=10</t>
   </si>
   <si>
     <t>程序导出参数</t>
   </si>
   <si>
-    <t>class-name</t>
+    <t>class_name</t>
   </si>
   <si>
     <t>GlobalPropertyDefine</t>
@@ -140,13 +140,13 @@
     <t>生成的类名称</t>
   </si>
   <si>
-    <t>class-comment</t>
+    <t>class_comment</t>
   </si>
   <si>
     <t>全局数值配置</t>
   </si>
   <si>
-    <t>key-value-column</t>
+    <t>key_value_column</t>
   </si>
   <si>
     <t>1,4</t>
@@ -155,13 +155,13 @@
     <t>键值所在列</t>
   </si>
   <si>
-    <t>comment-column</t>
+    <t>comment_column</t>
   </si>
   <si>
     <t>注释所在列</t>
   </si>
   <si>
-    <t>value-type-column</t>
+    <t>value_type_column</t>
   </si>
   <si>
     <t>值类型所在列</t>
@@ -172,12 +172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +187,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,9 +230,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +307,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -231,107 +315,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,61 +339,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,121 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +530,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,223 +630,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,8 +1119,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="3"/>
@@ -1349,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="5" outlineLevelCol="2"/>
